--- a/_CIPW/ESM.xlsx
+++ b/_CIPW/ESM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:A137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,1217 +367,959 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SIO2 TIO2 AL2O3 FE2O3 FEO MNO MGO CAO NA2O K2O P2O5 CO2 F S BAO                                                                                   0 1                              0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SiO2 TiO2 Al2O3 Fe2O3 FeO MnO MgO CaO Na2O K2O P2O5 CO2 F S BaO</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BARK1 P 0 1 42.8  3.57  10.15  2.71  9.9  0.17  13.1  12.27  2.16  0.36  0.62  0.11  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10000001 P 0 1 42.8  3.57  10.15  2.71  9.9  0.17  13.1  12.27  2.16  0.36  0.62  0.11  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BARK2 P 0 1 75.2  0.35  12.27  0.63  1.89  0.06  0.27  0.81  3.05  5.0  0.06  0.1  0.25  0.01  0.04 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10000002 P 0 1 75.2  0.35  12.27  0.63  1.89  0.06  0.27  0.81  3.05  5.0  0.06  0.1  0.25  0.01  0.04 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HORNBLND P 0 1 48.4  1.08  7.27  2.44  9.53  0.1  15.86  11.25  1.9  0.17  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10000003 P 0 1 48.4  1.08  7.27  2.44  9.53  0.1  15.86  11.25  1.9  0.17  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MC-14 V 0 1 50.22  2.08  15.14  3.64  8.27  0.17  7.18  10.07  1.93  0.33  0.25  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10000004 V 0 1 50.22  2.08  15.14  3.64  8.27  0.17  7.18  10.07  1.93  0.33  0.25  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MC-15 V 0 1 50.8  1.93  15.25  2.91  7.23  0.16  8.27  9.83  2.15  0.28  0.25  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10000005 V 0 1 50.8  1.93  15.25  2.91  7.23  0.16  8.27  9.83  2.15  0.28  0.25  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MC-16 V 0 1 49.5  2.1  15.38  4.51  6.99  0.17  7.23  10.44  2.1  0.39  0.28  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10000006 V 0 1 49.5  2.1  15.38  4.51  6.99  0.17  7.23  10.44  2.1  0.39  0.28  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MC-17 V 0 1 49.7  2.48  14.83  4.47  7.52  0.17  6.17  10.34  2.13  0.25  0.27  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10000007 V 0 1 49.7  2.48  14.83  4.47  7.52  0.17  6.17  10.34  2.13  0.25  0.27  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MC-18 V 0 1 49.9  2.31  14.65  5.69  6.88  0.16  6.57  10.25  2.15  0.26  0.26  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10000008 V 0 1 49.9  2.31  14.65  5.69  6.88  0.16  6.57  10.25  2.15  0.26  0.26  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MC-65 V 0 1 43.49  3.38  16.66  3.69  11.05  0.18  6.74  8.93  2.35  0.25  0.33  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10000009 V 0 1 43.49  3.38  16.66  3.69  11.05  0.18  6.74  8.93  2.35  0.25  0.33  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MC-66 V 0 1 48.72  2.19  15.11  1.79  9.5  0.17  8.7  10.69  1.85  0.28  0.23  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10000010 V 0 1 48.72  2.19  15.11  1.79  9.5  0.17  8.7  10.69  1.85  0.28  0.23  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MC-70 V 0 1 47.48  2.63  17.42  3.59  8.1  0.18  6.74  8.54  3.12  1.2  0.36  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10000011 V 0 1 47.48  2.63  17.42  3.59  8.1  0.18  6.74  8.54  3.12  1.2  0.36  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MC-69 V 0 1 45.54  2.85  17.61  3.56  8.25  0.17  6.42  10.82  2.74  0.7  0.34  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10000012 V 0 1 45.54  2.85  17.61  3.56  8.25  0.17  6.42  10.82  2.74  0.7  0.34  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MC-72 V 0 1 47.99  2.62  19.36  5.83  5.17  0.21  4.39  6.54  4.58  1.82  0.63  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10000013 V 0 1 47.99  2.62  19.36  5.83  5.17  0.21  4.39  6.54  4.58  1.82  0.63  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MC-73 V 0 1 50.25  2.12  19.03  4.53  5.5  0.22  3.11  5.98  5.3  2.2  1.14  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10000014 V 0 1 50.25  2.12  19.03  4.53  5.5  0.22  3.11  5.98  5.3  2.2  1.14  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MC-79 V 0 1 49.79  2.51  18.37  6.03  4.82  0.22  4.01  6.68  4.58  2.08  0.56  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10000015 V 0 1 49.79  2.51  18.37  6.03  4.82  0.22  4.01  6.68  4.58  2.08  0.56  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PICRBSLT V 0 1 46.8  1.9  8.2  1.2  9.8  0.0  19.8  9.5  1.6  1.2  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10000016 V 0 1 46.8  1.9  8.2  1.2  9.8  0.0  19.8  9.5  1.6  1.2  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>OLIVBSLT V 0 1 47.7  3.2  15.2  2.3  8.7  0.0  9.7  8.9  2.7  1.6  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10000017 V 0 1 47.7  3.2  15.2  2.3  8.7  0.0  9.7  8.9  2.7  1.6  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TRACBSLT V 0 1 51.1  2.8  17.6  2.8  6.8  0.0  4.8  6.9  4.0  3.2  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10000018 V 0 1 51.1  2.8  17.6  2.8  6.8  0.0  4.8  6.9  4.0  3.2  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TRACANDS V 0 1 56.3  1.8  17.8  2.9  4.7  0.0  2.3  4.7  4.8  4.7  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10000019 V 0 1 56.3  1.8  17.8  2.9  4.7  0.0  2.3  4.7  4.8  4.7  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TRACHYTE V 0 1 59.5  0.9  19.4  1.7  3.6  0.0  1.0  2.0  5.2  6.7  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10000020 V 0 1 59.5  0.9  19.4  1.7  3.6  0.0  1.0  2.0  5.2  6.7  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AEGAUGTR V 0 1 61.5  0.3  18.3  2.6  2.8  0.0  0.2  1.5  7.0  5.8  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10000021 V 0 1 61.5  0.3  18.3  2.6  2.8  0.0  0.2  1.5  7.0  5.8  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>NEPHSYNT P 0 1 54.99  0.6  20.96  2.25  2.05  0.15  0.77  2.31  8.23  5.58  0.13  0.2  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10000022 P 0 1 54.99  0.6  20.96  2.25  2.05  0.15  0.77  2.31  8.23  5.58  0.13  0.2  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PHONOLIT V 0 1 56.19  0.62  19.04  2.79  2.03  0.17  1.07  2.72  7.79  5.24  0.18  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10000023 V 0 1 56.19  0.62  19.04  2.79  2.03  0.17  1.07  2.72  7.79  5.24  0.18  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SYENITE P 0 1 58.58  0.84  16.64  3.04  3.13  0.13  1.87  3.53  5.24  4.95  0.29  0.28  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10000024 P 0 1 58.58  0.84  16.64  3.04  3.13  0.13  1.87  3.53  5.24  4.95  0.29  0.28  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TRACHTY V 0 1 61.21  0.7  16.96  2.99  2.29  0.15  0.93  2.34  5.47  4.98  0.21  0.09  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10000025 V 0 1 61.21  0.7  16.96  2.99  2.29  0.15  0.93  2.34  5.47  4.98  0.21  0.09  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>GRANITE P 0 1 71.3  0.31  14.32  1.21  1.64  0.05  0.71  1.84  3.68  4.07  0.12  0.05  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10000026 P 0 1 71.3  0.31  14.32  1.21  1.64  0.05  0.71  1.84  3.68  4.07  0.12  0.05  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>RHYOLITE V 0 1 72.82  0.28  13.27  1.48  1.11  0.06  0.39  1.14  3.55  4.3  0.07  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10000027 V 0 1 72.82  0.28  13.27  1.48  1.11  0.06  0.39  1.14  3.55  4.3  0.07  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ADAMETLE P 0 1 68.65  0.54  14.55  1.23  2.7  0.08  1.14  2.68  3.47  4.0  0.19  0.09  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10000028 P 0 1 68.65  0.54  14.55  1.23  2.7  0.08  1.14  2.68  3.47  4.0  0.19  0.09  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>GRANODIO P 0 1 66.09  0.54  15.73  1.38  2.73  0.08  1.74  3.83  3.75  2.73  0.18  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10000029 P 0 1 66.09  0.54  15.73  1.38  2.73  0.08  1.74  3.83  3.75  2.73  0.18  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>RHYODACI V 0 1 65.55  0.6  15.04  2.13  2.03  0.09  2.09  3.62  3.67  3.0  0.25  0.21  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10000030 V 0 1 65.55  0.6  15.04  2.13  2.03  0.09  2.09  3.62  3.67  3.0  0.25  0.21  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DACITE V 0 1 65.01  0.58  15.91  2.43  2.3  0.09  1.78  4.32  3.79  2.17  0.15  0.06  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10000031 V 0 1 65.01  0.58  15.91  2.43  2.3  0.09  1.78  4.32  3.79  2.17  0.15  0.06  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TONALITE P 0 1 61.52  0.73  16.48  1.83  3.82  0.08  2.8  5.42  3.63  2.07  0.25  0.14  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10000032 P 0 1 61.52  0.73  16.48  1.83  3.82  0.08  2.8  5.42  3.63  2.07  0.25  0.14  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DIORITE P 0 1 57.48  0.95  16.67  2.5  4.92  0.12  3.71  6.58  3.54  1.76  0.29  0.1  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10000033 P 0 1 57.48  0.95  16.67  2.5  4.92  0.12  3.71  6.58  3.54  1.76  0.29  0.1  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ANDESITE V 0 1 57.94  0.87  17.02  3.27  4.04  0.14  3.33  6.79  3.48  1.62  0.21  0.05  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10000034 V 0 1 57.94  0.87  17.02  3.27  4.04  0.14  3.33  6.79  3.48  1.62  0.21  0.05  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MONZONIT P 0 1 62.6  0.78  15.65  1.92  3.08  0.1  2.02  4.17  3.73  4.06  0.25  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10000035 P 0 1 62.6  0.78  15.65  1.92  3.08  0.1  2.02  4.17  3.73  4.06  0.25  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>LATITE V 0 1 61.25  0.81  16.01  3.28  2.07  0.09  2.22  4.34  3.71  3.87  0.33  0.19  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10000036 V 0 1 61.25  0.81  16.01  3.28  2.07  0.09  2.22  4.34  3.71  3.87  0.33  0.19  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TRNSANDS V 0 1 58.15  1.08  16.7  3.26  3.21  0.16  2.57  4.96  4.35  3.21  0.41  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10000037 V 0 1 58.15  1.08  16.7  3.26  3.21  0.16  2.57  4.96  4.35  3.21  0.41  0.08  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MUGEARIT V 0 1 50.52  2.09  16.71  4.88  5.86  0.26  3.2  6.14  4.73  2.46  0.75  0.15  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10000038 V 0 1 50.52  2.09  16.71  4.88  5.86  0.26  3.2  6.14  4.73  2.46  0.75  0.15  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TRNSBASL V 0 1 49.21  2.4  16.63  3.69  6.18  0.16  5.17  7.9  3.96  2.55  0.59  0.1  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10000039 V 0 1 49.21  2.4  16.63  3.69  6.18  0.16  5.17  7.9  3.96  2.55  0.59  0.1  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>HAWAIITE V 0 1 47.48  3.23  15.74  4.94  7.36  0.19  5.58  7.91  3.97  1.53  0.74  0.04  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10000040 V 0 1 47.48  3.23  15.74  4.94  7.36  0.19  5.58  7.91  3.97  1.53  0.74  0.04  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>GABBRO P 0 1 50.14  1.12  15.48  3.01  7.62  0.12  7.59  9.58  2.39  0.93  0.24  0.07  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10000041 P 0 1 50.14  1.12  15.48  3.01  7.62  0.12  7.59  9.58  2.39  0.93  0.24  0.07  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>NORITE P 0 1 50.44  1.0  16.28  2.21  7.39  0.14  8.73  9.41  2.26  0.7  0.15  0.18  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10000042 P 0 1 50.44  1.0  16.28  2.21  7.39  0.14  8.73  9.41  2.26  0.7  0.15  0.18  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DOLERITE P 0 1 50.18  1.14  15.26  2.86  8.05  0.19  6.78  9.24  2.56  1.04  0.27  0.18  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10000043 P 0 1 50.18  1.14  15.26  2.86  8.05  0.19  6.78  9.24  2.56  1.04  0.27  0.18  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>BASALT V 0 1 49.2  1.84  15.74  3.79  7.13  0.2  6.73  9.47  2.91  1.1  0.35  0.11  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10000044 V 0 1 49.2  1.84  15.74  3.79  7.13  0.2  6.73  9.47  2.91  1.1  0.35  0.11  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>BASANITE V 0 1 44.3  2.51  14.7  3.94  7.5  0.16  8.54  10.19  3.55  1.96  0.74  0.18  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10000045 V 0 1 44.3  2.51  14.7  3.94  7.5  0.16  8.54  10.19  3.55  1.96  0.74  0.18  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>NEPHELIN V 0 1 40.6  2.66  14.33  5.48  6.17  0.26  6.39  11.89  4.79  3.46  1.07  0.6  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10000046 V 0 1 40.6  2.66  14.33  5.48  6.17  0.26  6.39  11.89  4.79  3.46  1.07  0.6  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TEPHRITE V 0 1 47.8  1.76  17.0  4.12  5.22  0.15  4.7  9.18  3.69  4.49  0.63  0.02  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10000047 V 0 1 47.8  1.76  17.0  4.12  5.22  0.15  4.7  9.18  3.69  4.49  0.63  0.02  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ANORTHOS P 0 1 50.28  0.64  25.86  0.96  2.07  0.05  2.12  12.48  3.15  0.65  0.09  0.14  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10000048 P 0 1 50.28  0.64  25.86  0.96  2.07  0.05  2.12  12.48  3.15  0.65  0.09  0.14  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>PYROXENI P 0 1 46.27  1.47  7.16  4.27  7.18  0.16  16.04  14.08  0.92  0.64  0.38  0.13  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10000049 P 0 1 46.27  1.47  7.16  4.27  7.18  0.16  16.04  14.08  0.92  0.64  0.38  0.13  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>PERIDOTI P 0 1 42.26  0.63  4.23  3.61  6.58  0.41  31.24  5.05  0.49  0.34  0.1  0.3  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10000050 P 0 1 42.26  0.63  4.23  3.61  6.58  0.41  31.24  5.05  0.49  0.34  0.1  0.3  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DUNITE P 0 1 38.29  0.09  1.82  3.59  9.38  0.71  37.94  1.01  0.2  0.08  0.2  0.43  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10000051 P 0 1 38.29  0.09  1.82  3.59  9.38  0.71  37.94  1.01  0.2  0.08  0.2  0.43  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>HARZB P 0 1 39.93  0.26  2.35  5.48  6.47  0.15  33.18  2.9  0.31  0.14  4.0  0.24  0.13  0.09  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10000052 P 0 1 39.93  0.26  2.35  5.48  6.47  0.15  33.18  2.9  0.31  0.14  4.0  0.24  0.13  0.09  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>BOSTONT V 0 1 61.15  0.21  22.07  1.05  1.02  0.0  0.4  0.75  5.86  7.01  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10000053 V 0 1 61.15  0.21  22.07  1.05  1.02  0.0  0.4  0.75  5.86  7.01  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PLAGIOG P 0 1 68.0  0.7  14.1  0.0  6.6  0.1  1.6  4.7  3.5  0.3  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10000054 P 0 1 68.0  0.7  14.1  0.0  6.6  0.1  1.6  4.7  3.5  0.3  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ASCEN P 0 1 71.6  0.2  11.7  0.0  4.0  0.1  0.2  0.1  5.5  4.7  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10000055 P 0 1 71.6  0.2  11.7  0.0  4.0  0.1  0.2  0.1  5.5  4.7  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>NIGERIA P 0 1 75.6  0.1  13.0  1.3  0.0  0.1  0.5  3.9  4.7  0.0  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10000056 P 0 1 75.6  0.1  13.0  1.3  0.0  0.1  0.5  3.9  4.7  0.0  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>MTYPE P 0 1 67.2  0.5  15.2  0.0  4.1  0.1  1.7  4.3  4.0  1.3  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10000057 P 0 1 67.2  0.5  15.2  0.0  4.1  0.1  1.7  4.3  4.0  1.3  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ITYPE P 0 1 69.5  0.4  14.2  0.0  3.1  0.1  1.4  3.1  3.2  3.5  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10000058 P 0 1 69.5  0.4  14.2  0.0  3.1  0.1  1.4  3.1  3.2  3.5  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>STYPE P 0 1 70.9  0.4  14.0  0.0  3.0  0.1  1.2  1.9  2.5  4.1  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10000059 P 0 1 70.9  0.4  14.0  0.0  3.0  0.1  1.2  1.9  2.5  4.1  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ATYPE P 0 1 73.8  0.3  12.4  0.0  2.7  0.1  0.2  0.8  4.1  4.7  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10000060 P 0 1 73.8  0.3  12.4  0.0  2.7  0.1  0.2  0.8  4.1  4.7  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ARCHEAN P 0 1 69.8  0.3  15.6  0.0  2.8  0.1  1.2  3.2  4.9  1.8  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10000061 P 0 1 69.8  0.3  15.6  0.0  2.8  0.1  1.2  3.2  4.9  1.8  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>MODERN P 0 1 68.1  0.5  15.1  0.0  3.9  0.1  1.6  3.1  3.7  3.4  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10000062 P 0 1 68.1  0.5  15.1  0.0  3.9  0.1  1.6  3.1  3.7  3.4  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>AV.CRUST P 0 1 57.3  0.9  15.9  0.0  9.1  0.6  5.3  7.4  3.1  1.1  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10000063 P 0 1 57.3  0.9  15.9  0.0  9.1  0.6  5.3  7.4  3.1  1.1  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>U.CRUST P 0 1 66.0  0.5  15.2  0.0  4.5  0.3  2.2  4.2  3.9  3.4  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10000064 P 0 1 66.0  0.5  15.2  0.0  4.5  0.3  2.2  4.2  3.9  3.4  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>L.CRUST P 0 1 54.4  1.0  16.1  0.0  10.6  0.8  6.3  8.5  2.8  0.3  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10000065 P 0 1 54.4  1.0  16.1  0.0  10.6  0.8  6.3  8.5  2.8  0.3  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>EARVALK1 V 0 1 45.6  2.4  15.6  0.0  11.3  0.2  6.9  10.4  3.2  1.3  0.6  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10000066 V 0 1 45.6  2.4  15.6  0.0  11.3  0.2  6.9  10.4  3.2  1.3  0.6  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>EARVALK2 V 0 1 51.7  0.9  19.3  0.0  5.9  0.2  1.11  4.1  8.9  4.6  0.3  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10000067 V 0 1 51.7  0.9  19.3  0.0  5.9  0.2  1.11  4.1  8.9  4.6  0.3  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>EARVUAL3 V 0 1 46.2  1.6  18.6  0.0  8.9  0.2  2.3  7.3  9.3  4.2  0.5  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10000068 V 0 1 46.2  1.6  18.6  0.0  8.9  0.2  2.3  7.3  9.3  4.2  0.5  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>EARVUAL4 V 0 1 33.1  2.6  11.3  0.0  12.4  0.3  7.3  17.2  3.2  3.6  1.9  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10000069 V 0 1 33.1  2.6  11.3  0.0  12.4  0.3  7.3  17.2  3.2  3.6  1.9  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>EARVUAL5 V 0 1 44.1  2.8  17.0  0.0  10.0  0.2  3.7  8.4  4.3  7.2  1.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10000070 V 0 1 44.1  2.8  17.0  0.0  10.0  0.2  3.7  8.4  4.3  7.2  1.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>EARVUAL6 V 0 1 55.4  0.5  20.8  0.0  4.6  0.2  0.5  2.9  9.2  5.5  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10000071 V 0 1 55.4  0.5  20.8  0.0  4.6  0.2  0.5  2.9  9.2  5.5  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>EARVTRN7 V 0 1 47.6  2.0  14.8  0.0  11.4  0.2  6.4  11.5  2.7  0.8  0.3  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10000072 V 0 1 47.6  2.0  14.8  0.0  11.4  0.2  6.4  11.5  2.7  0.8  0.3  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>EARVTBR8 V 0 1 61.8  1.0  14.2  0.0  6.4  0.3  0.5  1.8  6.2  5.2  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10000073 V 0 1 61.8  1.0  14.2  0.0  6.4  0.3  0.5  1.8  6.2  5.2  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>EARVTRN9 V 0 1 70.3  0.3  7.6  0.0  8.4  0.3  0.0  0.4  7.3  4.3  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10000074 V 0 1 70.3  0.3  7.6  0.0  8.4  0.3  0.0  0.4  7.3  4.3  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>EARVTR10 V 0 1 72.5  0.2  10.3  0.0  4.0  0.1  0.0  0.2  5.9  4.4  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10000075 V 0 1 72.5  0.2  10.3  0.0  4.0  0.1  0.0  0.2  5.9  4.4  0.0  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>EARVSER4 V 0 1 50.8  1.4  14.9  0.0  10.1  0.2  6.9  9.8  2.6  0.4  0.4  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10000076 V 0 1 50.8  1.4  14.9  0.0  10.1  0.2  6.9  9.8  2.6  0.4  0.4  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>LOWKBSLT V 0 1 50.7  0.8  17.7  3.1  7.4  0.0  6.4  11.3  2.0  0.3  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10000077 V 0 1 50.7  0.8  17.7  3.1  7.4  0.0  6.4  11.3  2.0  0.3  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>LOWKANDS V 0 1 58.8  0.7  17.0  3.0  5.2  0.0  3.6  8.1  2.9  0.6  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10000078 V 0 1 58.8  0.7  17.0  3.0  5.2  0.0  3.6  8.1  2.9  0.6  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>LOWKDACT V 0 1 67.1  0.6  15.0  2.0  3.5  0.0  1.5  5.0  3.8  0.9  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10000079 V 0 1 67.1  0.6  15.0  2.0  3.5  0.0  1.5  5.0  3.8  0.9  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>LOWKRHYO V 0 1 74.5  0.4  12.9  1.4  1.7  0.0  0.6  2.8  4.0  1.1  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>10000080 V 0 1 74.5  0.4  12.9  1.4  1.7  0.0  0.6  2.8  4.0  1.1  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>MDKBASLT V 0 1 50.1  1.0  17.1  3.4  7.0  0.0  7.1  10.6  2.5  0.8  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10000081 V 0 1 50.1  1.0  17.1  3.4  7.0  0.0  7.1  10.6  2.5  0.8  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>MDKAANDS V 0 1 59.2  0.7  17.1  2.9  4.2  0.0  3.7  7.1  3.2  1.3  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10000082 V 0 1 59.2  0.7  17.1  2.9  4.2  0.0  3.7  7.1  3.2  1.3  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>MDKDACTE V 0 1 67.2  0.5  16.2  2.0  1.8  0.0  1.5  3.8  4.3  2.1  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10000083 V 0 1 67.2  0.5  16.2  2.0  1.8  0.0  1.5  3.8  4.3  2.1  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>MDKRHYOL V 0 1 75.2  0.2  13.5  1.0  1.1  0.0  0.5  1.6  4.2  2.7  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10000084 V 0 1 75.2  0.2  13.5  1.0  1.1  0.0  0.5  1.6  4.2  2.7  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>HIKBASLT V 0 1 49.8  1.6  16.5  3.9  6.4  0.0  6.8  9.4  3.3  1.6  0.5  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10000085 V 0 1 49.8  1.6  16.5  3.9  6.4  0.0  6.8  9.4  3.3  1.6  0.5  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>HIKAANDS V 0 1 59.4  0.9  16.8  3.6  3.0  0.0  3.2  6.0  3.6  2.8  0.4  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10000086 V 0 1 59.4  0.9  16.8  3.6  3.0  0.0  3.2  6.0  3.6  2.8  0.4  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>HIKDACIT V 0 1 67.5  0.6  16.0  2.0  1.5  0.0  1.1  3.0  4.0  3.9  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>10000087 V 0 1 67.5  0.6  16.0  2.0  1.5  0.0  1.1  3.0  4.0  3.9  0.2  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>HIKRHYOL V 0 1 75.6  0.2  13.3  0.9  0.5  0.0  0.3  0.9  3.6  4.5  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>10000088 V 0 1 75.6  0.2  13.3  0.9  0.5  0.0  0.3  0.9  3.6  4.5  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>AMBAR V 0 1 51.1  2.24  15.1  0.0  13.0  0.22  5.07  9.31  2.58  0.91  0.42  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10000089 V 0 1 51.1  2.24  15.1  0.0  13.0  0.22  5.07  9.31  2.58  0.91  0.42  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ROCCR V 0 1 49.5  2.41  16.3  0.0  12.4  0.2  6.06  9.15  2.58  0.93  0.41  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>10000090 V 0 1 49.5  2.41  16.3  0.0  12.4  0.2  6.06  9.15  2.58  0.93  0.41  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>HIMG V 0 1 53.8  1.78  14.5  0.0  11.4  0.19  5.25  9.07  2.83  1.05  0.28  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10000091 V 0 1 53.8  1.78  14.5  0.0  11.4  0.19  5.25  9.07  2.83  1.05  0.28  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>LOWMG V 0 1 55.9  2.27  14.0  0.0  11.8  0.19  3.36  6.88  3.14  1.99  0.43  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>10000092 V 0 1 55.9  2.27  14.0  0.0  11.8  0.19  3.36  6.88  3.14  1.99  0.43  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>PRINC V 0 1 51.6  2.71  13.9  0.0  12.3  0.24  4.44  8.12  3.36  2.02  1.39  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>10000093 V 0 1 51.6  2.71  13.9  0.0  12.3  0.24  4.44  8.12  3.36  2.02  1.39  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>BMN V 0 1 50.0  1.0  17.1  0.0  10.0  0.14  7.84  11.0  2.44  0.27  0.19  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>10000094 V 0 1 50.0  1.0  17.1  0.0  10.0  0.14  7.84  11.0  2.44  0.27  0.19  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>FRSPR V 0 1 52.3  3.17  13.2  0.0  14.4  0.22  4.04  7.9  2.67  1.41  0.71  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>10000095 V 0 1 52.3  3.17  13.2  0.0  14.4  0.22  4.04  7.9  2.67  1.41  0.71  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ROZA V 0 1 51.2  3.13  14.1  0.0  13.9  0.23  4.39  8.48  2.72  1.22  0.67  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>10000096 V 0 1 51.2  3.13  14.1  0.0  13.9  0.23  4.39  8.48  2.72  1.22  0.67  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>UMATI V 0 1 54.7  2.8  14.1  0.0  12.6  0.17  2.71  6.14  3.2  2.68  0.88  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10000097 V 0 1 54.7  2.8  14.1  0.0  12.6  0.17  2.71  6.14  3.2  2.68  0.88  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ASOTN V 0 1 50.7  1.45  16.2  0.0  9.64  0.17  8.19  10.7  2.22  0.51  0.18  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10000098 V 0 1 50.7  1.45  16.2  0.0  9.64  0.17  8.19  10.7  2.22  0.51  0.18  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>GOOSE V 0 1 47.5  3.79  12.5  0.0  17.5  0.27  4.41  8.8  2.44  1.23  1.54  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>10000099 V 0 1 47.5  3.79  12.5  0.0  17.5  0.27  4.41  8.8  2.44  1.23  1.54  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>PHILPP90 P 0 1 53.8  2.0  13.9  2.6  9.3  0.2  4.1  7.9  3.0  1.5  0.4  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>10000100 P 0 1 53.8  2.0  13.9  2.6  9.3  0.2  4.1  7.9  3.0  1.5  0.4  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>HAWTHOL1 V 0 1 49.4  2.5  13.9  3.03  8.53  0.16  8.44  10.3  2.13  0.38  0.26  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>10000101 V 0 1 49.4  2.5  13.9  3.03  8.53  0.16  8.44  10.3  2.13  0.38  0.26  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>HAWTHOL2 V 0 1 49.2  2.57  12.8  1.5  10.1  0.17  10.0  10.8  2.12  0.51  0.25  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10000102 V 0 1 49.2  2.57  12.8  1.5  10.1  0.17  10.0  10.8  2.12  0.51  0.25  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>HAWTHOL3 V 0 1 49.4  2.47  13.0  2.32  9.16  0.18  9.79  10.2  2.24  0.47  0.24  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10000103 V 0 1 49.4  2.47  13.0  2.32  9.16  0.18  9.79  10.2  2.24  0.47  0.24  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ALL V 0 1 50.5  1.56  15.3  0.0  10.5  0.0  7.47  11.5  2.62  0.16  0.13  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10000104 V 0 1 50.5  1.56  15.3  0.0  10.5  0.0  7.47  11.5  2.62  0.16  0.13  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>MAR V 0 1 50.7  1.49  15.6  0.0  9.85  0.0  7.69  11.4  2.66  0.17  0.12  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10000105 V 0 1 50.7  1.49  15.6  0.0  9.85  0.0  7.69  11.4  2.66  0.17  0.12  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>EPR V 0 1 50.2  1.77  14.9  0.0  11.3  0.0  7.1  11.4  2.66  0.16  0.14  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>10000106 V 0 1 50.2  1.77  14.9  0.0  11.3  0.0  7.1  11.4  2.66  0.16  0.14  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>IOR V 0 1 50.9  1.19  15.2  0.0  10.3  0.0  7.69  11.8  2.32  0.14  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>10000107 V 0 1 50.9  1.19  15.2  0.0  10.3  0.0  7.69  11.8  2.32  0.14  0.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>BASALT V 0 1 42.8  4.14  14.3  5.89  8.55  0.17  6.76  12.0  2.79  2.06  0.58  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>10000108 V 0 1 42.8  4.14  14.3  5.89  8.55  0.17  6.76  12.0  2.79  2.06  0.58  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TRACBSLT V 0 1 46.0  3.41  17.1  3.7  7.12  0.17  4.61  10.2  3.99  3.02  0.75  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>10000109 V 0 1 46.0  3.41  17.1  3.7  7.12  0.17  4.61  10.2  3.99  3.02  0.75  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>TRACBSLT V 0 1 49.4  3.19  18.5  2.87  5.37  0.16  3.31  7.47  4.95  3.68  1.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>10000110 V 0 1 49.4  3.19  18.5  2.87  5.37  0.16  3.31  7.47  4.95  3.68  1.1  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>TRACNDST V 0 1 54.6  1.75  19.5  2.83  2.87  0.18  1.5  5.65  5.82  4.85  0.51  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>10000111 V 0 1 54.6  1.75  19.5  2.83  2.87  0.18  1.5  5.65  5.82  4.85  0.51  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>TRACHYTE V 0 1 60.2  0.8  20.2  2.2  0.91  0.14  0.49  2.15  6.58  6.23  0.11  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>10000112 V 0 1 60.2  0.8  20.2  2.2  0.91  0.14  0.49  2.15  6.58  6.23  0.11  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>BASALT V 0 1 50.0  2.61  16.7  0.0  11.6  0.19  5.7  8.71  3.0  1.16  0.34  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>10000113 V 0 1 50.0  2.61  16.7  0.0  11.6  0.19  5.7  8.71  3.0  1.16  0.34  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>HAWAIITE V 0 1 51.4  2.65  16.0  0.0  10.7  0.2  5.14  8.36  3.68  1.35  0.59  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>10000114 V 0 1 51.4  2.65  16.0  0.0  10.7  0.2  5.14  8.36  3.68  1.35  0.59  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>TRNSANDS V 0 1 53.2  2.52  16.1  0.0  9.66  0.29  3.55  6.44  4.89  1.91  1.15  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>10000115 V 0 1 53.2  2.52  16.1  0.0  9.66  0.29  3.55  6.44  4.89  1.91  1.15  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>TRACHYTE V 0 1 64.8  0.61  16.8  0.0  4.48  0.22  0.53  1.54  6.53  3.63  0.66  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>10000116 V 0 1 64.8  0.61  16.8  0.0  4.48  0.22  0.53  1.54  6.53  3.63  0.66  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>RHYOLITE V 0 1 73.1  0.2  12.4  0.0  3.39  0.11  0.04  0.22  5.58  4.7  0.02  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>10000117 V 0 1 73.1  0.2  12.4  0.0  3.39  0.11  0.04  0.22  5.58  4.7  0.02  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>THOLBASL V 0 1 49.2  2.03  16.1  2.72  7.77  0.18  6.44  10.5  3.01  0.14  0.23  0.14  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>10000118 V 0 1 49.2  2.03  16.1  2.72  7.77  0.18  6.44  10.5  3.01  0.14  0.23  0.14  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ORENDITE V 0 1 35.6  5.98  12.9  7.68  9.28  0.05  5.4  8.46  8.35  2.78  2.13  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>10000119 V 0 1 35.6  5.98  12.9  7.68  9.28  0.05  5.4  8.46  8.35  2.78  2.13  0.0  0.0  0.0  0.0 0.0 0.0 0.0 0.0 0.0</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>0  0 1                              0.0 0.0 0.0 0.0 0.0</t>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BARKER-TAB-4-4-&amp;-4-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MORSE-APPENDIX-1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BROWNLOW-TAB-8-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>WINTER-TABLE-19-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WINTER-TABLE-14-3 </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>WINTER-TAB-A-2-&amp;-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>WINTER-TABLE-18-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WINTER-TABLE-16-2 </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>WINTER-TABLE-15-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>WINTER-TABLE-14-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WINTER-TABLE-14-2 </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>COXETAL-APPENDIX2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WINTER-TABLE-13-2 </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>WINTER-TABLE-14-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PHILLIPOT-TAB-6-3</t>
         </is>
       </c>
     </row>
